--- a/bbsheima.xlsx
+++ b/bbsheima.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
   <si>
     <t>板块</t>
   </si>
@@ -37,15 +37,42 @@
     <t>链接</t>
   </si>
   <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;聚成一团火，散成满天星！郑州PHP4期就业班开班啦！ ...</t>
+  </si>
+  <si>
+    <t>未匹配到合适的用户名</t>
+  </si>
+  <si>
+    <t>大豫妹妹</t>
+  </si>
+  <si>
+    <t>发表于 2017-1-10 12:00:11</t>
+  </si>
+  <si>
+    <t>聚成一团火，散成满天星！郑州PHP4期就业班开班啦！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-337149-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;郑州黑马JavaEE5期就业班开班啦</t>
+  </si>
+  <si>
+    <t>郑州-助教</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发表于 </t>
+  </si>
+  <si>
+    <t>郑州黑马JavaEE5期就业班开班啦</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-339301-1-1.html</t>
+  </si>
+  <si>
     <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;新的开始 新的期待-JavaEE6期火爆开班</t>
   </si>
   <si>
-    <t>未匹配到合适的用户名</t>
-  </si>
-  <si>
-    <t>郑州-助教</t>
-  </si>
-  <si>
     <t>发表于 2017-2-9 15:28:17</t>
   </si>
   <si>
@@ -80,6 +107,1215 @@
   </si>
   <si>
     <t>http://bbs.itheima.com/thread-301267-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;号外号外--黑马郑州校区0611双元UI设计基础开班啦 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-6-14 08:40:10</t>
+  </si>
+  <si>
+    <t>号外号外--黑马郑州校区0611双元UI设计基础开班啦</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-310426-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;加油吧，带着我们的梦，起飞！——UI3期就业班开班啦！ ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-6-29 09:04:07</t>
+  </si>
+  <si>
+    <t>加油吧，带着我们的梦，起飞！——UI3期就业班开班啦！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-312872-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;郑州PHP 01 期就业班开班啦！！</t>
+  </si>
+  <si>
+    <t>发表于 2016-8-18 14:28:50</t>
+  </si>
+  <si>
+    <t>郑州PHP 01 期就业班开班啦！！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-321226-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;郑州黑马PHP 首期 基础班开班啦！！</t>
+  </si>
+  <si>
+    <t>杨亚男</t>
+  </si>
+  <si>
+    <t>我是楠楠</t>
+  </si>
+  <si>
+    <t>发表于 2016-7-11 15:39:06</t>
+  </si>
+  <si>
+    <t>郑州黑马PHP 首期 基础班开班啦！！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-315343-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;奋斗的青春最美丽—郑州黑马UI设计基础04期开班啦！ ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-9-7 16:47:47</t>
+  </si>
+  <si>
+    <t>奋斗的青春最美丽—郑州黑马UI设计基础04期开班啦！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-324122-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;秋，静如水——郑州黑马Android21期开班咯 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-9-12 10:07:16</t>
+  </si>
+  <si>
+    <t>秋，静如水——郑州黑马Android21期开班咯</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-325403-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;教师节快乐-郑州黑马PHP基础3期（20160910双元）开班喽 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-9-11 17:16:50</t>
+  </si>
+  <si>
+    <t>教师节快乐-郑州黑马PHP基础3期（20160910双元）开班喽</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-325193-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;颜值担当-黑马程序员郑州中心首期UI基础班开班回顾 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-3-30 09:02:45</t>
+  </si>
+  <si>
+    <t>颜值担当-黑马程序员郑州中心首期UI基础班开班回顾</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-287113-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;金秋之PHP学习经验交流--php2期就业班盛大开班咯 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-9-20 15:54:04</t>
+  </si>
+  <si>
+    <t>金秋之PHP学习经验交流--php2期就业班盛大开班咯</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-327481-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;黑马郑州校区粽子节欢乐时光</t>
+  </si>
+  <si>
+    <t>发表于 2016-6-14 08:45:35</t>
+  </si>
+  <si>
+    <t>黑马郑州校区粽子节欢乐时光</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-310427-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州黑马UI1期，毕业72个工作日，就业89人，平均薪资554 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-9-4 17:24:05</t>
+  </si>
+  <si>
+    <t>郑州黑马UI1期，毕业72个工作日，就业89人，平均薪资5548</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-323480-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;选择了你，成就了我！人生因你而不同！！！ ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-7-20 16:22:44</t>
+  </si>
+  <si>
+    <t>选择了你，成就了我！人生因你而不同！！！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-316694-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;我的人生规划从这里起步~~黑马郑州UI设计1期同学 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-7-20 16:42:45</t>
+  </si>
+  <si>
+    <t>我的人生规划从这里起步~~黑马郑州UI设计1期同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-316696-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;来黑马程序员学习Android，让我带着必胜的信念，再一次 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-7-20 16:26:04</t>
+  </si>
+  <si>
+    <t>来黑马程序员学习Android，让我带着必胜的信念，再一次整...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-316690-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;你是我的梦想的加油站</t>
+  </si>
+  <si>
+    <t>发表于 2016-8-16 17:06:29</t>
+  </si>
+  <si>
+    <t>你是我的梦想的加油站</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-321093-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;苦中作乐学设计--黑马郑州UI设计2期学员自述 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-8-23 16:28:02</t>
+  </si>
+  <si>
+    <t>苦中作乐学设计--黑马郑州UI设计2期学员自述</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-321716-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;是所见,有此感--我与UI的结缘--黑马UI设计1期 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-8-3 16:10:06</t>
+  </si>
+  <si>
+    <t>是所见,有此感--我与UI的结缘--黑马UI设计1期</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-319357-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;选择了你 是我的幸运--传智Android学员</t>
+  </si>
+  <si>
+    <t>发表于 2016-9-2 16:12:19</t>
+  </si>
+  <si>
+    <t>选择了你 是我的幸运--传智Android学员</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-323133-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;我的UI学习之路--黑马双元UI设计1期崔同学 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-7-20 16:19:35</t>
+  </si>
+  <si>
+    <t>我的UI学习之路--黑马双元UI设计1期崔同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-316691-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;付出行动胜过无谓的等待……--黑马PHP1期黄同学 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-9-13 15:34:49</t>
+  </si>
+  <si>
+    <t>付出行动胜过无谓的等待……--黑马PHP1期黄同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-325677-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;黑马Android20期王同学给学习润件开发的帅哥美女们一些 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-9-20 16:57:55</t>
+  </si>
+  <si>
+    <t>黑马Android20期王同学给学习润件开发的帅哥美女们一些建议</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-327494-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;将来的你一定会感激现在拼命的自己--黑马JavaEE1期郭同 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-9-27 11:42:09</t>
+  </si>
+  <si>
+    <t>将来的你一定会感激现在拼命的自己--黑马JavaEE1期郭同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-328930-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;相信自己，就能胜利--黑马JavaEE1期葛同学 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-10-5 15:18:13</t>
+  </si>
+  <si>
+    <t>相信自己，就能胜利--黑马JavaEE1期葛同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-329702-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;不努力，枉青春--黑马JavaEE1期邵同学</t>
+  </si>
+  <si>
+    <t>发表于 2016-10-12 15:46:26</t>
+  </si>
+  <si>
+    <t>不努力，枉青春--黑马JavaEE1期邵同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-330667-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;此时不搏待何时--黑马JavaEE1期郭同学</t>
+  </si>
+  <si>
+    <t>发表于 2016-10-18 14:48:58</t>
+  </si>
+  <si>
+    <t>此时不搏待何时--黑马JavaEE1期郭同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-331363-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;你不逼自己一把，永远都不会知道自己有多优秀--黑马Java ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-10-18 16:03:19</t>
+  </si>
+  <si>
+    <t>你不逼自己一把，永远都不会知道自己有多优秀--黑马JavaEE...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-331369-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;感谢最美的遇见--传智19期Android学员感悟 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-9-21 16:45:35</t>
+  </si>
+  <si>
+    <t>感谢最美的遇见--传智19期Android学员感悟</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-327741-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;黑马JavaEE1期郭同学带你深入了解传智播客·黑马程序员 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-10-26 14:17:01</t>
+  </si>
+  <si>
+    <t>黑马JavaEE1期郭同学带你深入了解传智播客·黑马程序员郑州...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-332095-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;我选择，我无憾--黑马Android20期金同学</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-1 15:21:19</t>
+  </si>
+  <si>
+    <t>我选择，我无憾--黑马Android20期金同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-332662-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;【黑马郑州中心JavaEE1期胡同学】不忘初心，方得始终 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-3 15:23:29</t>
+  </si>
+  <si>
+    <t>【黑马郑州中心JavaEE1期胡同学】不忘初心，方得始终</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-332846-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;黑马郑州中心JavaEE1期李同学带你体验基础班的一切 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-8 16:28:48</t>
+  </si>
+  <si>
+    <t>黑马郑州中心JavaEE1期李同学带你体验基础班的一切</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-333222-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;【郑州黑马JavaEE2期】来黑马，我收获的并不仅仅是会敲 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-10 16:28:16</t>
+  </si>
+  <si>
+    <t>【郑州黑马JavaEE2期】来黑马，我收获的并不仅仅是会敲代....</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-333372-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;【黑马JavaEE2期】如果没有你</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-15 14:36:53</t>
+  </si>
+  <si>
+    <t>【黑马JavaEE2期】如果没有你</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-333781-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;为了梦想，拼了--黑马UI设计2期罗同学</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-17 14:35:06</t>
+  </si>
+  <si>
+    <t>为了梦想，拼了--黑马UI设计2期罗同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-333952-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;跟随心的方向--传智Android19期张同学</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-18 09:40:47</t>
+  </si>
+  <si>
+    <t>跟随心的方向--传智Android19期张同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-333998-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;努力的人生才是最美的人生--黑马PHP1期彭同学 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-18 10:09:19</t>
+  </si>
+  <si>
+    <t>努力的人生才是最美的人生--黑马PHP1期彭同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-334001-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;诗意的远方---致我在传智黑马的青春岁月--黑马PHP1期何 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-18 10:14:24</t>
+  </si>
+  <si>
+    <t>诗意的远方---致我在传智黑马的青春岁月--黑马PHP1期何同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-334002-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;奋斗在路上，我成长，我快乐--黑马JavaEE2期学员 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-18 10:35:28</t>
+  </si>
+  <si>
+    <t>奋斗在路上，我成长，我快乐--黑马JavaEE2期学员</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-334004-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;不说再见，我们后会有期--黑马Android20期张同学 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-18 10:43:03</t>
+  </si>
+  <si>
+    <t>不说再见，我们后会有期--黑马Android20期张同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-334005-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;《写给未来的自己》--黑马UI设计2期张同学 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-18 09:52:53</t>
+  </si>
+  <si>
+    <t>《写给未来的自己》--黑马UI设计2期张同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-334000-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;生活不只是眼前的苟且，还有诗和远方--黑马JavaEE2期王 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-18 10:50:34</t>
+  </si>
+  <si>
+    <t>生活不只是眼前的苟且，还有诗和远方--黑马JavaEE2期王同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-334006-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;选择黑马，我相信是正确的选择--黑马UI设计4期刘同学 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-18 10:54:38</t>
+  </si>
+  <si>
+    <t>选择黑马，我相信是正确的选择--黑马UI设计4期刘同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-334007-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;黑红之间</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-18 10:22:57</t>
+  </si>
+  <si>
+    <t>黑红之间</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-334003-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;在黑马的点滴岁月--黑马Android21期冯同学 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-29 16:37:26</t>
+  </si>
+  <si>
+    <t>在黑马的点滴岁月--黑马Android21期冯同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-334953-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;不怕千万人阻挡，只怕自己投降--黑马Android20期连同学 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-8 16:55:48</t>
+  </si>
+  <si>
+    <t>不怕千万人阻挡，只怕自己投降--黑马Android20期连同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-335763-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;邂逅黑马，不再彷徨--黑马UI设计4期杨同学 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-16 16:40:52</t>
+  </si>
+  <si>
+    <t>邂逅黑马，不再彷徨--黑马UI设计4期杨同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-336224-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;把握当下才能掌握未来--黑马JavaEE3期李同学 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-30 10:11:40</t>
+  </si>
+  <si>
+    <t>把握当下才能掌握未来--黑马JavaEE3期李同学</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-336835-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;我们总能在最深的绝望里遇见最美的风景--黑马Android21 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-29 18:58:22</t>
+  </si>
+  <si>
+    <t>我们总能在最深的绝望里遇见最美的风景--黑马Android21期秦...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-336814-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;努力的人生才是最美的人生--黑马PHP就业4期！！ ...</t>
+  </si>
+  <si>
+    <t>发表于 2017-2-9 11:33:35</t>
+  </si>
+  <si>
+    <t>努力的人生才是最美的人生--黑马PHP就业4期！！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-338208-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;传智的日子，我们一起前行</t>
+  </si>
+  <si>
+    <t>发表于 2017-2-9 11:05:17</t>
+  </si>
+  <si>
+    <t>传智的日子，我们一起前行</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-338206-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;用一份好的工作去回报自己，回报老师-郑州黑马UI设计就. ...</t>
+  </si>
+  <si>
+    <t>发表于 2017-2-9 14:28:00</t>
+  </si>
+  <si>
+    <t>用一份好的工作去回报自己，回报老师-郑州黑马UI设计就...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-338211-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;努力的人生才是最美的人生---黑马PHP就业4期！ ...</t>
+  </si>
+  <si>
+    <t>发表于 2017-2-9 11:21:31</t>
+  </si>
+  <si>
+    <t>努力的人生才是最美的人生---黑马PHP就业4期！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-338207-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;黑马Android20期朱同学说感谢传智黑马给了他一个转折点 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-30 10:17:09</t>
+  </si>
+  <si>
+    <t>黑马Android20期朱同学说感谢传智黑马给了他一个转折点</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-336836-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;再续传智缘</t>
+  </si>
+  <si>
+    <t>15239948959</t>
+  </si>
+  <si>
+    <t>发表于 2017-2-16 15:20:58</t>
+  </si>
+  <si>
+    <t>再续传智缘</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-338589-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;有梦的追求，岁月就不会让你失望</t>
+  </si>
+  <si>
+    <t>任梦珂</t>
+  </si>
+  <si>
+    <t>Rmengke</t>
+  </si>
+  <si>
+    <t>发表于 2017-2-13 10:01:28</t>
+  </si>
+  <si>
+    <t>有梦的追求，岁月就不会让你失望</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-338417-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;改变拥有希望</t>
+  </si>
+  <si>
+    <t>发表于 2017-2-10 13:42:01</t>
+  </si>
+  <si>
+    <t>改变拥有希望</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-338257-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;成功就是用自己喜欢的方式去生活</t>
+  </si>
+  <si>
+    <t>成功就是用自己喜欢的方式去生活</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-339347-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;黑马双元UI设计2期，毕业20个工作日，就业41人，平均薪 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-16 11:32:53</t>
+  </si>
+  <si>
+    <t>黑马双元UI设计2期，毕业20个工作日，就业41人，平均薪资6...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-333878-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州PHP就业班01期毕业十个工作日就业率达到58.89%！ ...</t>
+  </si>
+  <si>
+    <t>发表于 2017-1-5 11:51:25</t>
+  </si>
+  <si>
+    <t>郑州PHP就业班01期毕业十个工作日就业率达到58.89%！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-337004-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州黑马UI设计就业3期,毕业66个工作日，就业率91.55%， ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-20 15:13:27</t>
+  </si>
+  <si>
+    <t>郑州黑马UI设计就业3期,毕业66个工作日，就业率91.55%，平...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-336391-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州黑马UI设计就业2期，毕业44个工作日，就业率85.56% ...</t>
+  </si>
+  <si>
+    <t>郑州黑马UI设计就业2期，毕业44个工作日，就业率85.56%，平...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-339159-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州黑马JavaEE就业01期，毕业5个工作日，班级就业率达3 ...</t>
+  </si>
+  <si>
+    <t>郑州黑马JavaEE就业01期，毕业5个工作日，班级就业率达33％...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-339072-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州传智Android就业13期，毕业77个工作日，就业率89.87 ...</t>
+  </si>
+  <si>
+    <t>郑州传智Android就业13期，毕业77个工作日，就业率89.87%，平...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-339308-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州传智Android就业16期，毕业66个工作日，就业率83.02 ...</t>
+  </si>
+  <si>
+    <t>郑州传智Android就业16期，毕业66个工作日，就业率83.02%，平...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-339315-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州黑马Android就业19期  毕业22个工作日，就业率50%， ...</t>
+  </si>
+  <si>
+    <t>郑州黑马Android就业19期  毕业22个工作日，就业率50%，平均...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-339296-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州黑马UI2期就业，毕业66个工作日，就业率85.56%，平 ...</t>
+  </si>
+  <si>
+    <t>郑州黑马UI2期就业，毕业66个工作日，就业率85.56%，平均薪...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-339162-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州传智Android就业14期毕业70工作日就业56人平均薪资6 ...</t>
+  </si>
+  <si>
+    <t>郑州传智Android就业14期毕业70工作日就业56人平均薪资6781元</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-339349-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;爱！让我们设计出更好的作品-黑马双元UI2期 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-7-4 10:59:58</t>
+  </si>
+  <si>
+    <t>爱！让我们设计出更好的作品-黑马双元UI2期</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-314055-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;【黑马PHP】但愿此刻的微笑，停留在永恒的记忆里！ ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-8-8 11:54:46</t>
+  </si>
+  <si>
+    <t>【黑马PHP】但愿此刻的微笑，停留在永恒的记忆里！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-320223-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;伴随奥运，奋战PHP到底</t>
+  </si>
+  <si>
+    <t>发表于 2016-8-11 17:55:51</t>
+  </si>
+  <si>
+    <t>伴随奥运，奋战PHP到底</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-320660-1-1.html</t>
+  </si>
+  <si>
+    <t>发表于 2016-8-15 10:50:37</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-321006-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;舌战群儒，谁能脱颖而出？？</t>
+  </si>
+  <si>
+    <t>发表于 2016-8-6 16:03:50</t>
+  </si>
+  <si>
+    <t>舌战群儒，谁能脱颖而出？？</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-319960-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;因为你在场，秋季更美好！--黑马郑州中心javaEE二期盛大 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-8-30 09:11:23</t>
+  </si>
+  <si>
+    <t>因为你在场，秋季更美好！--黑马郑州中心javaEE二期盛大开...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-322685-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;秋风不燥，蓝天尚好</t>
+  </si>
+  <si>
+    <t>发表于 2016-8-30 18:42:08</t>
+  </si>
+  <si>
+    <t>秋风不燥，蓝天尚好</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-322712-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;告白班主任，壁咚班长，美女导师热舞-郑州黑马UI3期 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-8-15 17:56:01</t>
+  </si>
+  <si>
+    <t>告白班主任，壁咚班长，美女导师热舞-郑州黑马UI3期</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-321030-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;不忘初心，方得始终</t>
+  </si>
+  <si>
+    <t>发表于 2016-9-3 14:59:07</t>
+  </si>
+  <si>
+    <t>不忘初心，方得始终</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-323298-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;秋季，用双手谱写我们的篇章</t>
+  </si>
+  <si>
+    <t>发表于 2016-9-25 21:12:08</t>
+  </si>
+  <si>
+    <t>秋季，用双手谱写我们的篇章</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-328622-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;郑州黑马PHP就业01期秋游！</t>
+  </si>
+  <si>
+    <t>发表于 2016-9-25 17:26:08</t>
+  </si>
+  <si>
+    <t>郑州黑马PHP就业01期秋游！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-328586-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;男男接吻？猪八戒背媳妇？一场别开生面的开班活动! ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-9-26 17:19:40</t>
+  </si>
+  <si>
+    <t>男男接吻？猪八戒背媳妇？一场别开生面的开班活动!</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-328798-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;图画是设计师的语言---黑马郑州校区UI班手绘作品展 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-10-11 15:24:45</t>
+  </si>
+  <si>
+    <t>图画是设计师的语言---黑马郑州校区UI班手绘作品展</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-330539-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;一个充满文艺范的地方-我在这里等你！</t>
+  </si>
+  <si>
+    <t>发表于 2016-10-20 10:16:06</t>
+  </si>
+  <si>
+    <t>一个充满文艺范的地方-我在这里等你！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-331529-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;再不疯狂我们就老啦！</t>
+  </si>
+  <si>
+    <t>发表于 2016-10-22 17:05:02</t>
+  </si>
+  <si>
+    <t>再不疯狂我们就老啦！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-331786-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;背上行囊，带着传智黑马的期待，奔向远方！ ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-30 15:49:03</t>
+  </si>
+  <si>
+    <t>背上行囊，带着传智黑马的期待，奔向远方！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-335062-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;新的起航，你准备好了吗？</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-11 14:44:19</t>
+  </si>
+  <si>
+    <t>新的起航，你准备好了吗？</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-333434-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;【郑州校区】潇洒走一回</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-2 13:17:27</t>
+  </si>
+  <si>
+    <t>【郑州校区】潇洒走一回</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-332767-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;十一月份的尾巴，十二月份的前奏</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-1 12:59:38</t>
+  </si>
+  <si>
+    <t>十一月份的尾巴，十二月份的前奏</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-335122-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;致未来为世界创造美的优秀设计师们-郑州黑马UI设计基础0 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-6 16:07:33</t>
+  </si>
+  <si>
+    <t>致未来为世界创造美的优秀设计师们-郑州黑马UI设计基础05期</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-335643-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;明天的你会感谢今天奋斗的自己-郑州黑马Java EE3期开... ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-10-14 23:37:11</t>
+  </si>
+  <si>
+    <t>明天的你会感谢今天奋斗的自己-郑州黑马Java EE3期开...</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-331031-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;我们和冬至有个约会</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-22 19:48:03</t>
+  </si>
+  <si>
+    <t>我们和冬至有个约会</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-336481-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;圣诞夜，鹅毛雪......</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-26 17:54:29</t>
+  </si>
+  <si>
+    <t>圣诞夜，鹅毛雪......</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-336687-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;夜虽长，静也安逸，闹也舒心</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-27 17:28:11</t>
+  </si>
+  <si>
+    <t>夜虽长，静也安逸，闹也舒心</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-336734-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;相约圣诞，喜迎元旦--PHP03期与UI5期联谊晚会 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-28 18:51:20</t>
+  </si>
+  <si>
+    <t>相约圣诞，喜迎元旦--PHP03期与UI5期联谊晚会</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-336777-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;暖心圣诞节-郑州黑马JavaEE就业03期</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-29 16:04:52</t>
+  </si>
+  <si>
+    <t>暖心圣诞节-郑州黑马JavaEE就业03期</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-336806-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;致—郑州黑马UI设计04期就业班宝宝们的一封信！ ...</t>
+  </si>
+  <si>
+    <t>发表于 2017-1-19 13:21:43</t>
+  </si>
+  <si>
+    <t>致—郑州黑马UI设计04期就业班宝宝们的一封信！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-337580-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;送你离开</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-31 14:13:50</t>
+  </si>
+  <si>
+    <t>送你离开</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-336877-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;当元宵节遇到情人节，当我遇到你-郑州黑马UI设计就业5期 ...</t>
+  </si>
+  <si>
+    <t>发表于 2017-2-15 15:00:11</t>
+  </si>
+  <si>
+    <t>当元宵节遇到情人节，当我遇到你-郑州黑马UI设计就业5期</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-338536-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;1024“程序猿”日-  郑州黑马PHP就业03期（20161024双元 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-10-26 17:34:07</t>
+  </si>
+  <si>
+    <t>1024“程序猿”日-  郑州黑马PHP就业03期（20161024双元）开班啦</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-332120-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;首期黑马双元JavaEE强势入驻郑州校区，爆满开班！！！ ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-7-18 10:03:33</t>
+  </si>
+  <si>
+    <t>首期黑马双元JavaEE强势入驻郑州校区，爆满开班！！！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-316380-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;[JavaEE] 不忘初心，方得始终-郑州黑马java就业03期开班 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-2 12:22:02</t>
+  </si>
+  <si>
+    <t>[JavaEE] 不忘初心，方得始终-郑州黑马java就业03期开班了</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-335230-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;收获的季节，迎来郑州黑马21期就业班的开班日 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-11-8 09:52:48</t>
+  </si>
+  <si>
+    <t>收获的季节，迎来郑州黑马21期就业班的开班日</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-333172-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;邀你在冬天等春暖花开</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-16 17:40:12</t>
+  </si>
+  <si>
+    <t>邀你在冬天等春暖花开</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-336227-1-1.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;新的一年，新的开始。-----郑州黑马Java就业04期，我来 ...</t>
+  </si>
+  <si>
+    <t>发表于 2016-12-31 13:48:00</t>
+  </si>
+  <si>
+    <t>新的一年，新的开始。-----郑州黑马Java就业04期，我来了！</t>
+  </si>
+  <si>
+    <t>http://bbs.itheima.com/thread-336876-1-1.html</t>
   </si>
 </sst>
 </file>
@@ -415,7 +1651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +1745,2190 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s"/>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s"/>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s"/>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s"/>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s"/>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s"/>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s"/>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s"/>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s"/>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s"/>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s"/>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s"/>
+      <c r="F25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" t="s"/>
+      <c r="F26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s"/>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s"/>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s"/>
+      <c r="F29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s"/>
+      <c r="F30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s"/>
+      <c r="F31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s"/>
+      <c r="F32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s"/>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" t="s"/>
+      <c r="F34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" t="s"/>
+      <c r="F35" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" t="s"/>
+      <c r="F36" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" t="s"/>
+      <c r="F37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" t="s"/>
+      <c r="F38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" t="s"/>
+      <c r="F39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" t="s"/>
+      <c r="F40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" t="s"/>
+      <c r="F41" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" t="s"/>
+      <c r="F42" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" t="s"/>
+      <c r="F43" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" t="s"/>
+      <c r="F44" t="s">
+        <v>183</v>
+      </c>
+      <c r="G44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" t="s"/>
+      <c r="F45" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" t="s"/>
+      <c r="F46" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" t="s"/>
+      <c r="F47" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" t="s"/>
+      <c r="F48" t="s">
+        <v>199</v>
+      </c>
+      <c r="G48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" t="s"/>
+      <c r="F49" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" t="s"/>
+      <c r="F50" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" t="s"/>
+      <c r="F51" t="s">
+        <v>211</v>
+      </c>
+      <c r="G51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" t="s"/>
+      <c r="F52" t="s">
+        <v>215</v>
+      </c>
+      <c r="G52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" t="s"/>
+      <c r="F53" t="s">
+        <v>219</v>
+      </c>
+      <c r="G53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" t="s"/>
+      <c r="F54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>226</v>
+      </c>
+      <c r="E55" t="s"/>
+      <c r="F55" t="s">
+        <v>227</v>
+      </c>
+      <c r="G55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" t="s"/>
+      <c r="F56" t="s">
+        <v>231</v>
+      </c>
+      <c r="G56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57" t="s"/>
+      <c r="F57" t="s">
+        <v>235</v>
+      </c>
+      <c r="G57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" t="s"/>
+      <c r="F58" t="s">
+        <v>239</v>
+      </c>
+      <c r="G58" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" t="s"/>
+      <c r="F59" t="s">
+        <v>243</v>
+      </c>
+      <c r="G59" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" t="s"/>
+      <c r="F60" t="s">
+        <v>248</v>
+      </c>
+      <c r="G60" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" t="s">
+        <v>251</v>
+      </c>
+      <c r="C61" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" t="s">
+        <v>253</v>
+      </c>
+      <c r="E61" t="s"/>
+      <c r="F61" t="s">
+        <v>254</v>
+      </c>
+      <c r="G61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" t="s">
+        <v>257</v>
+      </c>
+      <c r="E62" t="s"/>
+      <c r="F62" t="s">
+        <v>258</v>
+      </c>
+      <c r="G62" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>260</v>
+      </c>
+      <c r="B63" t="s">
+        <v>251</v>
+      </c>
+      <c r="C63" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s"/>
+      <c r="F63" t="s">
+        <v>261</v>
+      </c>
+      <c r="G63" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" t="s">
+        <v>264</v>
+      </c>
+      <c r="E64" t="s"/>
+      <c r="F64" t="s">
+        <v>265</v>
+      </c>
+      <c r="G64" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>267</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>268</v>
+      </c>
+      <c r="E65" t="s"/>
+      <c r="F65" t="s">
+        <v>269</v>
+      </c>
+      <c r="G65" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E66" t="s"/>
+      <c r="F66" t="s">
+        <v>273</v>
+      </c>
+      <c r="G66" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>275</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s"/>
+      <c r="F67" t="s">
+        <v>276</v>
+      </c>
+      <c r="G67" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>278</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s"/>
+      <c r="F68" t="s">
+        <v>279</v>
+      </c>
+      <c r="G68" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>281</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s"/>
+      <c r="F69" t="s">
+        <v>282</v>
+      </c>
+      <c r="G69" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>284</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s"/>
+      <c r="F70" t="s">
+        <v>285</v>
+      </c>
+      <c r="G70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s"/>
+      <c r="F71" t="s">
+        <v>288</v>
+      </c>
+      <c r="G71" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>290</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s"/>
+      <c r="F72" t="s">
+        <v>291</v>
+      </c>
+      <c r="G72" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s"/>
+      <c r="F73" t="s">
+        <v>294</v>
+      </c>
+      <c r="G73" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>296</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" t="s">
+        <v>297</v>
+      </c>
+      <c r="E74" t="s"/>
+      <c r="F74" t="s">
+        <v>298</v>
+      </c>
+      <c r="G74" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" t="s"/>
+      <c r="F75" t="s">
+        <v>302</v>
+      </c>
+      <c r="G75" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>304</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>305</v>
+      </c>
+      <c r="E76" t="s"/>
+      <c r="F76" t="s">
+        <v>306</v>
+      </c>
+      <c r="G76" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>304</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" t="s">
+        <v>308</v>
+      </c>
+      <c r="E77" t="s"/>
+      <c r="F77" t="s">
+        <v>306</v>
+      </c>
+      <c r="G77" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>310</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>311</v>
+      </c>
+      <c r="E78" t="s"/>
+      <c r="F78" t="s">
+        <v>312</v>
+      </c>
+      <c r="G78" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>314</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>315</v>
+      </c>
+      <c r="E79" t="s"/>
+      <c r="F79" t="s">
+        <v>316</v>
+      </c>
+      <c r="G79" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>318</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>319</v>
+      </c>
+      <c r="E80" t="s"/>
+      <c r="F80" t="s">
+        <v>320</v>
+      </c>
+      <c r="G80" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>322</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>323</v>
+      </c>
+      <c r="E81" t="s"/>
+      <c r="F81" t="s">
+        <v>324</v>
+      </c>
+      <c r="G81" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>326</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>327</v>
+      </c>
+      <c r="E82" t="s"/>
+      <c r="F82" t="s">
+        <v>328</v>
+      </c>
+      <c r="G82" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>330</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>331</v>
+      </c>
+      <c r="E83" t="s"/>
+      <c r="F83" t="s">
+        <v>332</v>
+      </c>
+      <c r="G83" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>334</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>335</v>
+      </c>
+      <c r="E84" t="s"/>
+      <c r="F84" t="s">
+        <v>336</v>
+      </c>
+      <c r="G84" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>338</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>339</v>
+      </c>
+      <c r="E85" t="s"/>
+      <c r="F85" t="s">
+        <v>340</v>
+      </c>
+      <c r="G85" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>342</v>
+      </c>
+      <c r="B86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" t="s">
+        <v>343</v>
+      </c>
+      <c r="E86" t="s"/>
+      <c r="F86" t="s">
+        <v>344</v>
+      </c>
+      <c r="G86" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>346</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>347</v>
+      </c>
+      <c r="E87" t="s"/>
+      <c r="F87" t="s">
+        <v>348</v>
+      </c>
+      <c r="G87" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>350</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>351</v>
+      </c>
+      <c r="E88" t="s"/>
+      <c r="F88" t="s">
+        <v>352</v>
+      </c>
+      <c r="G88" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>354</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>355</v>
+      </c>
+      <c r="E89" t="s"/>
+      <c r="F89" t="s">
+        <v>356</v>
+      </c>
+      <c r="G89" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>358</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>359</v>
+      </c>
+      <c r="E90" t="s"/>
+      <c r="F90" t="s">
+        <v>360</v>
+      </c>
+      <c r="G90" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>362</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>363</v>
+      </c>
+      <c r="E91" t="s"/>
+      <c r="F91" t="s">
+        <v>364</v>
+      </c>
+      <c r="G91" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>366</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>367</v>
+      </c>
+      <c r="E92" t="s"/>
+      <c r="F92" t="s">
+        <v>368</v>
+      </c>
+      <c r="G92" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>370</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>371</v>
+      </c>
+      <c r="E93" t="s"/>
+      <c r="F93" t="s">
+        <v>372</v>
+      </c>
+      <c r="G93" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>374</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>375</v>
+      </c>
+      <c r="E94" t="s"/>
+      <c r="F94" t="s">
+        <v>376</v>
+      </c>
+      <c r="G94" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>378</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>379</v>
+      </c>
+      <c r="E95" t="s"/>
+      <c r="F95" t="s">
+        <v>380</v>
+      </c>
+      <c r="G95" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>382</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>383</v>
+      </c>
+      <c r="E96" t="s"/>
+      <c r="F96" t="s">
+        <v>384</v>
+      </c>
+      <c r="G96" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>386</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>387</v>
+      </c>
+      <c r="E97" t="s"/>
+      <c r="F97" t="s">
+        <v>388</v>
+      </c>
+      <c r="G97" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>390</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>391</v>
+      </c>
+      <c r="E98" t="s"/>
+      <c r="F98" t="s">
+        <v>392</v>
+      </c>
+      <c r="G98" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>394</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>395</v>
+      </c>
+      <c r="E99" t="s"/>
+      <c r="F99" t="s">
+        <v>396</v>
+      </c>
+      <c r="G99" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>398</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>399</v>
+      </c>
+      <c r="E100" t="s"/>
+      <c r="F100" t="s">
+        <v>400</v>
+      </c>
+      <c r="G100" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>402</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>403</v>
+      </c>
+      <c r="E101" t="s"/>
+      <c r="F101" t="s">
+        <v>404</v>
+      </c>
+      <c r="G101" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>406</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>407</v>
+      </c>
+      <c r="E102" t="s"/>
+      <c r="F102" t="s">
+        <v>408</v>
+      </c>
+      <c r="G102" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>410</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>411</v>
+      </c>
+      <c r="E103" t="s"/>
+      <c r="F103" t="s">
+        <v>412</v>
+      </c>
+      <c r="G103" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>414</v>
+      </c>
+      <c r="B104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104" t="s">
+        <v>45</v>
+      </c>
+      <c r="D104" t="s">
+        <v>415</v>
+      </c>
+      <c r="E104" t="s"/>
+      <c r="F104" t="s">
+        <v>416</v>
+      </c>
+      <c r="G104" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>418</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>419</v>
+      </c>
+      <c r="E105" t="s"/>
+      <c r="F105" t="s">
+        <v>420</v>
+      </c>
+      <c r="G105" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>422</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>423</v>
+      </c>
+      <c r="E106" t="s"/>
+      <c r="F106" t="s">
+        <v>424</v>
+      </c>
+      <c r="G106" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>426</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>427</v>
+      </c>
+      <c r="E107" t="s"/>
+      <c r="F107" t="s">
+        <v>428</v>
+      </c>
+      <c r="G107" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>430</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>431</v>
+      </c>
+      <c r="E108" t="s"/>
+      <c r="F108" t="s">
+        <v>432</v>
+      </c>
+      <c r="G108" t="s">
+        <v>433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/bbsheima.xlsx
+++ b/bbsheima.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
   <si>
     <t>板块</t>
   </si>
@@ -37,7 +37,7 @@
     <t>链接</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;聚成一团火，散成满天星！郑州PHP4期就业班开班啦！ ...</t>
+    <t>开班典礼</t>
   </si>
   <si>
     <t>未匹配到合适的用户名</t>
@@ -55,9 +55,6 @@
     <t>http://bbs.itheima.com/thread-337149-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;郑州黑马JavaEE5期就业班开班啦</t>
-  </si>
-  <si>
     <t>郑州-助教</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>http://bbs.itheima.com/thread-339301-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;新的开始 新的期待-JavaEE6期火爆开班</t>
-  </si>
-  <si>
     <t>发表于 2017-2-9 15:28:17</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>http://bbs.itheima.com/thread-338216-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;郑州校区黑马UI2期盛大开班咯</t>
-  </si>
-  <si>
     <t>米娅</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>http://bbs.itheima.com/thread-295320-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;连雨不知夏去，UI方知夏深--UI2期就业班开班啦 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-5-15 17:41:21</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>http://bbs.itheima.com/thread-301267-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;号外号外--黑马郑州校区0611双元UI设计基础开班啦 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-6-14 08:40:10</t>
   </si>
   <si>
@@ -121,9 +106,6 @@
     <t>http://bbs.itheima.com/thread-310426-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;加油吧，带着我们的梦，起飞！——UI3期就业班开班啦！ ...</t>
-  </si>
-  <si>
     <t>发表于 2016-6-29 09:04:07</t>
   </si>
   <si>
@@ -133,9 +115,6 @@
     <t>http://bbs.itheima.com/thread-312872-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;郑州PHP 01 期就业班开班啦！！</t>
-  </si>
-  <si>
     <t>发表于 2016-8-18 14:28:50</t>
   </si>
   <si>
@@ -145,9 +124,6 @@
     <t>http://bbs.itheima.com/thread-321226-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;郑州黑马PHP 首期 基础班开班啦！！</t>
-  </si>
-  <si>
     <t>杨亚男</t>
   </si>
   <si>
@@ -163,9 +139,6 @@
     <t>http://bbs.itheima.com/thread-315343-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;奋斗的青春最美丽—郑州黑马UI设计基础04期开班啦！ ...</t>
-  </si>
-  <si>
     <t>发表于 2016-9-7 16:47:47</t>
   </si>
   <si>
@@ -175,9 +148,6 @@
     <t>http://bbs.itheima.com/thread-324122-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;秋，静如水——郑州黑马Android21期开班咯 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-9-12 10:07:16</t>
   </si>
   <si>
@@ -187,9 +157,6 @@
     <t>http://bbs.itheima.com/thread-325403-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;教师节快乐-郑州黑马PHP基础3期（20160910双元）开班喽 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-9-11 17:16:50</t>
   </si>
   <si>
@@ -199,9 +166,6 @@
     <t>http://bbs.itheima.com/thread-325193-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;颜值担当-黑马程序员郑州中心首期UI基础班开班回顾 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-3-30 09:02:45</t>
   </si>
   <si>
@@ -211,9 +175,6 @@
     <t>http://bbs.itheima.com/thread-287113-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;金秋之PHP学习经验交流--php2期就业班盛大开班咯 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-9-20 15:54:04</t>
   </si>
   <si>
@@ -223,7 +184,7 @@
     <t>http://bbs.itheima.com/thread-327481-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;黑马郑州校区粽子节欢乐时光</t>
+    <t>班级活动</t>
   </si>
   <si>
     <t>发表于 2016-6-14 08:45:35</t>
@@ -235,7 +196,7 @@
     <t>http://bbs.itheima.com/thread-310427-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州黑马UI1期，毕业72个工作日，就业89人，平均薪资554 ...</t>
+    <t>就业薪资</t>
   </si>
   <si>
     <t>发表于 2016-9-4 17:24:05</t>
@@ -247,7 +208,7 @@
     <t>http://bbs.itheima.com/thread-323480-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;选择了你，成就了我！人生因你而不同！！！ ...</t>
+    <t>学员感言</t>
   </si>
   <si>
     <t>发表于 2016-7-20 16:22:44</t>
@@ -259,9 +220,6 @@
     <t>http://bbs.itheima.com/thread-316694-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;我的人生规划从这里起步~~黑马郑州UI设计1期同学 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-7-20 16:42:45</t>
   </si>
   <si>
@@ -271,9 +229,6 @@
     <t>http://bbs.itheima.com/thread-316696-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;来黑马程序员学习Android，让我带着必胜的信念，再一次 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-7-20 16:26:04</t>
   </si>
   <si>
@@ -283,9 +238,6 @@
     <t>http://bbs.itheima.com/thread-316690-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;你是我的梦想的加油站</t>
-  </si>
-  <si>
     <t>发表于 2016-8-16 17:06:29</t>
   </si>
   <si>
@@ -295,9 +247,6 @@
     <t>http://bbs.itheima.com/thread-321093-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;苦中作乐学设计--黑马郑州UI设计2期学员自述 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-8-23 16:28:02</t>
   </si>
   <si>
@@ -307,9 +256,6 @@
     <t>http://bbs.itheima.com/thread-321716-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;是所见,有此感--我与UI的结缘--黑马UI设计1期 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-8-3 16:10:06</t>
   </si>
   <si>
@@ -319,9 +265,6 @@
     <t>http://bbs.itheima.com/thread-319357-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;选择了你 是我的幸运--传智Android学员</t>
-  </si>
-  <si>
     <t>发表于 2016-9-2 16:12:19</t>
   </si>
   <si>
@@ -331,9 +274,6 @@
     <t>http://bbs.itheima.com/thread-323133-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;我的UI学习之路--黑马双元UI设计1期崔同学 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-7-20 16:19:35</t>
   </si>
   <si>
@@ -343,9 +283,6 @@
     <t>http://bbs.itheima.com/thread-316691-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;付出行动胜过无谓的等待……--黑马PHP1期黄同学 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-9-13 15:34:49</t>
   </si>
   <si>
@@ -355,9 +292,6 @@
     <t>http://bbs.itheima.com/thread-325677-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;黑马Android20期王同学给学习润件开发的帅哥美女们一些 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-9-20 16:57:55</t>
   </si>
   <si>
@@ -367,9 +301,6 @@
     <t>http://bbs.itheima.com/thread-327494-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;将来的你一定会感激现在拼命的自己--黑马JavaEE1期郭同 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-9-27 11:42:09</t>
   </si>
   <si>
@@ -379,9 +310,6 @@
     <t>http://bbs.itheima.com/thread-328930-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;相信自己，就能胜利--黑马JavaEE1期葛同学 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-10-5 15:18:13</t>
   </si>
   <si>
@@ -391,9 +319,6 @@
     <t>http://bbs.itheima.com/thread-329702-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;不努力，枉青春--黑马JavaEE1期邵同学</t>
-  </si>
-  <si>
     <t>发表于 2016-10-12 15:46:26</t>
   </si>
   <si>
@@ -403,9 +328,6 @@
     <t>http://bbs.itheima.com/thread-330667-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;此时不搏待何时--黑马JavaEE1期郭同学</t>
-  </si>
-  <si>
     <t>发表于 2016-10-18 14:48:58</t>
   </si>
   <si>
@@ -415,9 +337,6 @@
     <t>http://bbs.itheima.com/thread-331363-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;你不逼自己一把，永远都不会知道自己有多优秀--黑马Java ...</t>
-  </si>
-  <si>
     <t>发表于 2016-10-18 16:03:19</t>
   </si>
   <si>
@@ -427,9 +346,6 @@
     <t>http://bbs.itheima.com/thread-331369-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;感谢最美的遇见--传智19期Android学员感悟 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-9-21 16:45:35</t>
   </si>
   <si>
@@ -439,9 +355,6 @@
     <t>http://bbs.itheima.com/thread-327741-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;黑马JavaEE1期郭同学带你深入了解传智播客·黑马程序员 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-10-26 14:17:01</t>
   </si>
   <si>
@@ -451,9 +364,6 @@
     <t>http://bbs.itheima.com/thread-332095-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;我选择，我无憾--黑马Android20期金同学</t>
-  </si>
-  <si>
     <t>发表于 2016-11-1 15:21:19</t>
   </si>
   <si>
@@ -463,9 +373,6 @@
     <t>http://bbs.itheima.com/thread-332662-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;【黑马郑州中心JavaEE1期胡同学】不忘初心，方得始终 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-11-3 15:23:29</t>
   </si>
   <si>
@@ -475,9 +382,6 @@
     <t>http://bbs.itheima.com/thread-332846-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;黑马郑州中心JavaEE1期李同学带你体验基础班的一切 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-11-8 16:28:48</t>
   </si>
   <si>
@@ -487,9 +391,6 @@
     <t>http://bbs.itheima.com/thread-333222-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;【郑州黑马JavaEE2期】来黑马，我收获的并不仅仅是会敲 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-11-10 16:28:16</t>
   </si>
   <si>
@@ -499,9 +400,6 @@
     <t>http://bbs.itheima.com/thread-333372-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;【黑马JavaEE2期】如果没有你</t>
-  </si>
-  <si>
     <t>发表于 2016-11-15 14:36:53</t>
   </si>
   <si>
@@ -511,9 +409,6 @@
     <t>http://bbs.itheima.com/thread-333781-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;为了梦想，拼了--黑马UI设计2期罗同学</t>
-  </si>
-  <si>
     <t>发表于 2016-11-17 14:35:06</t>
   </si>
   <si>
@@ -523,9 +418,6 @@
     <t>http://bbs.itheima.com/thread-333952-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;跟随心的方向--传智Android19期张同学</t>
-  </si>
-  <si>
     <t>发表于 2016-11-18 09:40:47</t>
   </si>
   <si>
@@ -535,9 +427,6 @@
     <t>http://bbs.itheima.com/thread-333998-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;努力的人生才是最美的人生--黑马PHP1期彭同学 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-11-18 10:09:19</t>
   </si>
   <si>
@@ -547,9 +436,6 @@
     <t>http://bbs.itheima.com/thread-334001-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;诗意的远方---致我在传智黑马的青春岁月--黑马PHP1期何 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-11-18 10:14:24</t>
   </si>
   <si>
@@ -559,9 +445,6 @@
     <t>http://bbs.itheima.com/thread-334002-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;奋斗在路上，我成长，我快乐--黑马JavaEE2期学员 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-11-18 10:35:28</t>
   </si>
   <si>
@@ -571,9 +454,6 @@
     <t>http://bbs.itheima.com/thread-334004-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;不说再见，我们后会有期--黑马Android20期张同学 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-11-18 10:43:03</t>
   </si>
   <si>
@@ -583,9 +463,6 @@
     <t>http://bbs.itheima.com/thread-334005-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;《写给未来的自己》--黑马UI设计2期张同学 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-11-18 09:52:53</t>
   </si>
   <si>
@@ -595,9 +472,6 @@
     <t>http://bbs.itheima.com/thread-334000-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;生活不只是眼前的苟且，还有诗和远方--黑马JavaEE2期王 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-11-18 10:50:34</t>
   </si>
   <si>
@@ -607,9 +481,6 @@
     <t>http://bbs.itheima.com/thread-334006-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;选择黑马，我相信是正确的选择--黑马UI设计4期刘同学 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-11-18 10:54:38</t>
   </si>
   <si>
@@ -619,9 +490,6 @@
     <t>http://bbs.itheima.com/thread-334007-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;黑红之间</t>
-  </si>
-  <si>
     <t>发表于 2016-11-18 10:22:57</t>
   </si>
   <si>
@@ -631,9 +499,6 @@
     <t>http://bbs.itheima.com/thread-334003-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;在黑马的点滴岁月--黑马Android21期冯同学 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-11-29 16:37:26</t>
   </si>
   <si>
@@ -643,9 +508,6 @@
     <t>http://bbs.itheima.com/thread-334953-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;不怕千万人阻挡，只怕自己投降--黑马Android20期连同学 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-12-8 16:55:48</t>
   </si>
   <si>
@@ -655,9 +517,6 @@
     <t>http://bbs.itheima.com/thread-335763-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;邂逅黑马，不再彷徨--黑马UI设计4期杨同学 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-12-16 16:40:52</t>
   </si>
   <si>
@@ -667,9 +526,6 @@
     <t>http://bbs.itheima.com/thread-336224-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;把握当下才能掌握未来--黑马JavaEE3期李同学 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-12-30 10:11:40</t>
   </si>
   <si>
@@ -679,9 +535,6 @@
     <t>http://bbs.itheima.com/thread-336835-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;我们总能在最深的绝望里遇见最美的风景--黑马Android21 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-12-29 18:58:22</t>
   </si>
   <si>
@@ -691,9 +544,6 @@
     <t>http://bbs.itheima.com/thread-336814-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;努力的人生才是最美的人生--黑马PHP就业4期！！ ...</t>
-  </si>
-  <si>
     <t>发表于 2017-2-9 11:33:35</t>
   </si>
   <si>
@@ -703,9 +553,6 @@
     <t>http://bbs.itheima.com/thread-338208-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;传智的日子，我们一起前行</t>
-  </si>
-  <si>
     <t>发表于 2017-2-9 11:05:17</t>
   </si>
   <si>
@@ -715,9 +562,6 @@
     <t>http://bbs.itheima.com/thread-338206-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;用一份好的工作去回报自己，回报老师-郑州黑马UI设计就. ...</t>
-  </si>
-  <si>
     <t>发表于 2017-2-9 14:28:00</t>
   </si>
   <si>
@@ -727,9 +571,6 @@
     <t>http://bbs.itheima.com/thread-338211-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;努力的人生才是最美的人生---黑马PHP就业4期！ ...</t>
-  </si>
-  <si>
     <t>发表于 2017-2-9 11:21:31</t>
   </si>
   <si>
@@ -739,9 +580,6 @@
     <t>http://bbs.itheima.com/thread-338207-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;黑马Android20期朱同学说感谢传智黑马给了他一个转折点 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-12-30 10:17:09</t>
   </si>
   <si>
@@ -751,9 +589,6 @@
     <t>http://bbs.itheima.com/thread-336836-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;再续传智缘</t>
-  </si>
-  <si>
     <t>15239948959</t>
   </si>
   <si>
@@ -766,9 +601,6 @@
     <t>http://bbs.itheima.com/thread-338589-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;有梦的追求，岁月就不会让你失望</t>
-  </si>
-  <si>
     <t>任梦珂</t>
   </si>
   <si>
@@ -784,9 +616,6 @@
     <t>http://bbs.itheima.com/thread-338417-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;改变拥有希望</t>
-  </si>
-  <si>
     <t>发表于 2017-2-10 13:42:01</t>
   </si>
   <si>
@@ -796,18 +625,12 @@
     <t>http://bbs.itheima.com/thread-338257-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;学员感言&lt;&lt;成功就是用自己喜欢的方式去生活</t>
-  </si>
-  <si>
     <t>成功就是用自己喜欢的方式去生活</t>
   </si>
   <si>
     <t>http://bbs.itheima.com/thread-339347-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;黑马双元UI设计2期，毕业20个工作日，就业41人，平均薪 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-11-16 11:32:53</t>
   </si>
   <si>
@@ -817,9 +640,6 @@
     <t>http://bbs.itheima.com/thread-333878-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州PHP就业班01期毕业十个工作日就业率达到58.89%！ ...</t>
-  </si>
-  <si>
     <t>发表于 2017-1-5 11:51:25</t>
   </si>
   <si>
@@ -829,9 +649,6 @@
     <t>http://bbs.itheima.com/thread-337004-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州黑马UI设计就业3期,毕业66个工作日，就业率91.55%， ...</t>
-  </si>
-  <si>
     <t>发表于 2016-12-20 15:13:27</t>
   </si>
   <si>
@@ -841,72 +658,48 @@
     <t>http://bbs.itheima.com/thread-336391-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州黑马UI设计就业2期，毕业44个工作日，就业率85.56% ...</t>
-  </si>
-  <si>
     <t>郑州黑马UI设计就业2期，毕业44个工作日，就业率85.56%，平...</t>
   </si>
   <si>
     <t>http://bbs.itheima.com/thread-339159-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州黑马JavaEE就业01期，毕业5个工作日，班级就业率达3 ...</t>
-  </si>
-  <si>
-    <t>郑州黑马JavaEE就业01期，毕业5个工作日，班级就业率达33％...</t>
+    <t>郑州黑马JavaEE就业01期， 毕业工作日10天，正式入职31人，...</t>
   </si>
   <si>
     <t>http://bbs.itheima.com/thread-339072-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州传智Android就业13期，毕业77个工作日，就业率89.87 ...</t>
-  </si>
-  <si>
     <t>郑州传智Android就业13期，毕业77个工作日，就业率89.87%，平...</t>
   </si>
   <si>
     <t>http://bbs.itheima.com/thread-339308-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州传智Android就业16期，毕业66个工作日，就业率83.02 ...</t>
-  </si>
-  <si>
     <t>郑州传智Android就业16期，毕业66个工作日，就业率83.02%，平...</t>
   </si>
   <si>
     <t>http://bbs.itheima.com/thread-339315-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州黑马Android就业19期  毕业22个工作日，就业率50%， ...</t>
-  </si>
-  <si>
     <t>郑州黑马Android就业19期  毕业22个工作日，就业率50%，平均...</t>
   </si>
   <si>
     <t>http://bbs.itheima.com/thread-339296-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州黑马UI2期就业，毕业66个工作日，就业率85.56%，平 ...</t>
-  </si>
-  <si>
     <t>郑州黑马UI2期就业，毕业66个工作日，就业率85.56%，平均薪...</t>
   </si>
   <si>
     <t>http://bbs.itheima.com/thread-339162-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;就业薪资&lt;&lt;郑州传智Android就业14期毕业70工作日就业56人平均薪资6 ...</t>
-  </si>
-  <si>
     <t>郑州传智Android就业14期毕业70工作日就业56人平均薪资6781元</t>
   </si>
   <si>
     <t>http://bbs.itheima.com/thread-339349-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;爱！让我们设计出更好的作品-黑马双元UI2期 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-7-4 10:59:58</t>
   </si>
   <si>
@@ -916,9 +709,6 @@
     <t>http://bbs.itheima.com/thread-314055-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;【黑马PHP】但愿此刻的微笑，停留在永恒的记忆里！ ...</t>
-  </si>
-  <si>
     <t>发表于 2016-8-8 11:54:46</t>
   </si>
   <si>
@@ -928,9 +718,6 @@
     <t>http://bbs.itheima.com/thread-320223-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;伴随奥运，奋战PHP到底</t>
-  </si>
-  <si>
     <t>发表于 2016-8-11 17:55:51</t>
   </si>
   <si>
@@ -946,9 +733,6 @@
     <t>http://bbs.itheima.com/thread-321006-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;舌战群儒，谁能脱颖而出？？</t>
-  </si>
-  <si>
     <t>发表于 2016-8-6 16:03:50</t>
   </si>
   <si>
@@ -958,9 +742,6 @@
     <t>http://bbs.itheima.com/thread-319960-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;因为你在场，秋季更美好！--黑马郑州中心javaEE二期盛大 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-8-30 09:11:23</t>
   </si>
   <si>
@@ -970,9 +751,6 @@
     <t>http://bbs.itheima.com/thread-322685-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;秋风不燥，蓝天尚好</t>
-  </si>
-  <si>
     <t>发表于 2016-8-30 18:42:08</t>
   </si>
   <si>
@@ -982,9 +760,6 @@
     <t>http://bbs.itheima.com/thread-322712-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;告白班主任，壁咚班长，美女导师热舞-郑州黑马UI3期 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-8-15 17:56:01</t>
   </si>
   <si>
@@ -994,9 +769,6 @@
     <t>http://bbs.itheima.com/thread-321030-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;不忘初心，方得始终</t>
-  </si>
-  <si>
     <t>发表于 2016-9-3 14:59:07</t>
   </si>
   <si>
@@ -1006,9 +778,6 @@
     <t>http://bbs.itheima.com/thread-323298-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;秋季，用双手谱写我们的篇章</t>
-  </si>
-  <si>
     <t>发表于 2016-9-25 21:12:08</t>
   </si>
   <si>
@@ -1018,9 +787,6 @@
     <t>http://bbs.itheima.com/thread-328622-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;郑州黑马PHP就业01期秋游！</t>
-  </si>
-  <si>
     <t>发表于 2016-9-25 17:26:08</t>
   </si>
   <si>
@@ -1030,9 +796,6 @@
     <t>http://bbs.itheima.com/thread-328586-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;男男接吻？猪八戒背媳妇？一场别开生面的开班活动! ...</t>
-  </si>
-  <si>
     <t>发表于 2016-9-26 17:19:40</t>
   </si>
   <si>
@@ -1042,9 +805,6 @@
     <t>http://bbs.itheima.com/thread-328798-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;图画是设计师的语言---黑马郑州校区UI班手绘作品展 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-10-11 15:24:45</t>
   </si>
   <si>
@@ -1054,9 +814,6 @@
     <t>http://bbs.itheima.com/thread-330539-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;一个充满文艺范的地方-我在这里等你！</t>
-  </si>
-  <si>
     <t>发表于 2016-10-20 10:16:06</t>
   </si>
   <si>
@@ -1066,9 +823,6 @@
     <t>http://bbs.itheima.com/thread-331529-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;再不疯狂我们就老啦！</t>
-  </si>
-  <si>
     <t>发表于 2016-10-22 17:05:02</t>
   </si>
   <si>
@@ -1078,9 +832,6 @@
     <t>http://bbs.itheima.com/thread-331786-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;背上行囊，带着传智黑马的期待，奔向远方！ ...</t>
-  </si>
-  <si>
     <t>发表于 2016-11-30 15:49:03</t>
   </si>
   <si>
@@ -1090,9 +841,6 @@
     <t>http://bbs.itheima.com/thread-335062-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;新的起航，你准备好了吗？</t>
-  </si>
-  <si>
     <t>发表于 2016-11-11 14:44:19</t>
   </si>
   <si>
@@ -1102,9 +850,6 @@
     <t>http://bbs.itheima.com/thread-333434-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;【郑州校区】潇洒走一回</t>
-  </si>
-  <si>
     <t>发表于 2016-11-2 13:17:27</t>
   </si>
   <si>
@@ -1114,9 +859,6 @@
     <t>http://bbs.itheima.com/thread-332767-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;十一月份的尾巴，十二月份的前奏</t>
-  </si>
-  <si>
     <t>发表于 2016-12-1 12:59:38</t>
   </si>
   <si>
@@ -1126,9 +868,6 @@
     <t>http://bbs.itheima.com/thread-335122-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;致未来为世界创造美的优秀设计师们-郑州黑马UI设计基础0 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-12-6 16:07:33</t>
   </si>
   <si>
@@ -1138,9 +877,6 @@
     <t>http://bbs.itheima.com/thread-335643-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;明天的你会感谢今天奋斗的自己-郑州黑马Java EE3期开... ...</t>
-  </si>
-  <si>
     <t>发表于 2016-10-14 23:37:11</t>
   </si>
   <si>
@@ -1150,9 +886,6 @@
     <t>http://bbs.itheima.com/thread-331031-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;我们和冬至有个约会</t>
-  </si>
-  <si>
     <t>发表于 2016-12-22 19:48:03</t>
   </si>
   <si>
@@ -1162,9 +895,6 @@
     <t>http://bbs.itheima.com/thread-336481-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;圣诞夜，鹅毛雪......</t>
-  </si>
-  <si>
     <t>发表于 2016-12-26 17:54:29</t>
   </si>
   <si>
@@ -1174,9 +904,6 @@
     <t>http://bbs.itheima.com/thread-336687-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;夜虽长，静也安逸，闹也舒心</t>
-  </si>
-  <si>
     <t>发表于 2016-12-27 17:28:11</t>
   </si>
   <si>
@@ -1186,9 +913,6 @@
     <t>http://bbs.itheima.com/thread-336734-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;相约圣诞，喜迎元旦--PHP03期与UI5期联谊晚会 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-12-28 18:51:20</t>
   </si>
   <si>
@@ -1198,9 +922,6 @@
     <t>http://bbs.itheima.com/thread-336777-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;暖心圣诞节-郑州黑马JavaEE就业03期</t>
-  </si>
-  <si>
     <t>发表于 2016-12-29 16:04:52</t>
   </si>
   <si>
@@ -1210,9 +931,6 @@
     <t>http://bbs.itheima.com/thread-336806-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;致—郑州黑马UI设计04期就业班宝宝们的一封信！ ...</t>
-  </si>
-  <si>
     <t>发表于 2017-1-19 13:21:43</t>
   </si>
   <si>
@@ -1222,9 +940,6 @@
     <t>http://bbs.itheima.com/thread-337580-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;送你离开</t>
-  </si>
-  <si>
     <t>发表于 2016-12-31 14:13:50</t>
   </si>
   <si>
@@ -1234,9 +949,6 @@
     <t>http://bbs.itheima.com/thread-336877-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;班级活动&lt;&lt;当元宵节遇到情人节，当我遇到你-郑州黑马UI设计就业5期 ...</t>
-  </si>
-  <si>
     <t>发表于 2017-2-15 15:00:11</t>
   </si>
   <si>
@@ -1246,9 +958,6 @@
     <t>http://bbs.itheima.com/thread-338536-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;1024“程序猿”日-  郑州黑马PHP就业03期（20161024双元 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-10-26 17:34:07</t>
   </si>
   <si>
@@ -1258,9 +967,6 @@
     <t>http://bbs.itheima.com/thread-332120-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;首期黑马双元JavaEE强势入驻郑州校区，爆满开班！！！ ...</t>
-  </si>
-  <si>
     <t>发表于 2016-7-18 10:03:33</t>
   </si>
   <si>
@@ -1270,9 +976,6 @@
     <t>http://bbs.itheima.com/thread-316380-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;[JavaEE] 不忘初心，方得始终-郑州黑马java就业03期开班 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-12-2 12:22:02</t>
   </si>
   <si>
@@ -1282,9 +985,6 @@
     <t>http://bbs.itheima.com/thread-335230-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;收获的季节，迎来郑州黑马21期就业班的开班日 ...</t>
-  </si>
-  <si>
     <t>发表于 2016-11-8 09:52:48</t>
   </si>
   <si>
@@ -1294,9 +994,6 @@
     <t>http://bbs.itheima.com/thread-333172-1-1.html</t>
   </si>
   <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;邀你在冬天等春暖花开</t>
-  </si>
-  <si>
     <t>发表于 2016-12-16 17:40:12</t>
   </si>
   <si>
@@ -1304,9 +1001,6 @@
   </si>
   <si>
     <t>http://bbs.itheima.com/thread-336227-1-1.html</t>
-  </si>
-  <si>
-    <t>&lt;&lt;黑马程序员IT技术论坛&lt;&lt;论坛版块&lt;&lt;校园生活&lt;&lt;开班典礼&lt;&lt;新的一年，新的开始。-----郑州黑马Java就业04期，我来 ...</t>
   </si>
   <si>
     <t>发表于 2016-12-31 13:48:00</t>
@@ -1705,133 +1399,133 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3" t="s"/>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s"/>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s"/>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s"/>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s"/>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1840,40 +1534,40 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s"/>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1882,40 +1576,40 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s"/>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s"/>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1924,40 +1618,40 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s"/>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s"/>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1966,40 +1660,40 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s"/>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s"/>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2008,796 +1702,796 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s"/>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s"/>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s"/>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s"/>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s"/>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s"/>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s"/>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s"/>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s"/>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s"/>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s"/>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s"/>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s"/>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s"/>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s"/>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s"/>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s"/>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s"/>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s"/>
       <c r="F35" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="G35" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s"/>
       <c r="F36" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="G36" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s"/>
       <c r="F37" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s"/>
       <c r="F38" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="G38" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s"/>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="G39" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s"/>
       <c r="F40" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="G40" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s"/>
       <c r="F41" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s"/>
       <c r="F42" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="G42" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s"/>
       <c r="F43" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="G43" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s"/>
       <c r="F44" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="G44" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s"/>
       <c r="F45" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="G45" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="E46" t="s"/>
       <c r="F46" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="G46" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s"/>
       <c r="F47" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="G47" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="E48" t="s"/>
       <c r="F48" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="G48" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="E49" t="s"/>
       <c r="F49" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="G49" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="E50" t="s"/>
       <c r="F50" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="G50" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="E51" t="s"/>
       <c r="F51" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="G51" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="E52" t="s"/>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="G52" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="E53" t="s"/>
       <c r="F53" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="G53" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="E54" t="s"/>
       <c r="F54" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="G54" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2806,19 +2500,19 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="E55" t="s"/>
       <c r="F55" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="G55" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>229</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2827,19 +2521,19 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s"/>
       <c r="F56" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="G56" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>233</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -2848,19 +2542,19 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s"/>
       <c r="F57" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="G57" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -2869,145 +2563,145 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="E58" t="s"/>
       <c r="F58" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="G58" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="E59" t="s"/>
       <c r="F59" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="G59" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>245</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="D60" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="E60" t="s"/>
       <c r="F60" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="G60" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="E61" t="s"/>
       <c r="F61" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="G61" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="D62" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="E62" t="s"/>
       <c r="F62" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="G62" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="C63" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s"/>
       <c r="F63" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="G63" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="E64" t="s"/>
       <c r="F64" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="G64" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>267</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -3016,40 +2710,40 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="E65" t="s"/>
       <c r="F65" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="G65" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>271</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="E66" t="s"/>
       <c r="F66" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="G66" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -3058,103 +2752,103 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s"/>
       <c r="F67" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="G67" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>278</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
         <v>14</v>
-      </c>
-      <c r="D68" t="s">
-        <v>15</v>
       </c>
       <c r="E68" t="s"/>
       <c r="F68" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="G68" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
         <v>14</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
       </c>
       <c r="E69" t="s"/>
       <c r="F69" t="s">
-        <v>282</v>
+        <v>218</v>
       </c>
       <c r="G69" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
         <v>14</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
       </c>
       <c r="E70" t="s"/>
       <c r="F70" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="G70" t="s">
-        <v>286</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
         <v>14</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
       </c>
       <c r="E71" t="s"/>
       <c r="F71" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="G71" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -3163,82 +2857,82 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s"/>
       <c r="F72" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
       <c r="G72" t="s">
-        <v>292</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>293</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
         <v>14</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
       </c>
       <c r="E73" t="s"/>
       <c r="F73" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="G73" t="s">
-        <v>295</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>296</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c r="E74" t="s"/>
       <c r="F74" t="s">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="G74" t="s">
-        <v>299</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>300</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="E75" t="s"/>
       <c r="F75" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="G75" t="s">
-        <v>303</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>304</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -3247,103 +2941,103 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>305</v>
+        <v>234</v>
       </c>
       <c r="E76" t="s"/>
       <c r="F76" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="G76" t="s">
-        <v>307</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>304</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="E77" t="s"/>
       <c r="F77" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="G77" t="s">
-        <v>309</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>310</v>
+        <v>56</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="E78" t="s"/>
       <c r="F78" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="G78" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>314</v>
+        <v>56</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>315</v>
+        <v>242</v>
       </c>
       <c r="E79" t="s"/>
       <c r="F79" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="G79" t="s">
-        <v>317</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>318</v>
+        <v>56</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>319</v>
+        <v>245</v>
       </c>
       <c r="E80" t="s"/>
       <c r="F80" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="G80" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>322</v>
+        <v>56</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -3352,61 +3046,61 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="E81" t="s"/>
       <c r="F81" t="s">
-        <v>324</v>
+        <v>249</v>
       </c>
       <c r="G81" t="s">
-        <v>325</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="E82" t="s"/>
       <c r="F82" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="G82" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>330</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>331</v>
+        <v>254</v>
       </c>
       <c r="E83" t="s"/>
       <c r="F83" t="s">
-        <v>332</v>
+        <v>255</v>
       </c>
       <c r="G83" t="s">
-        <v>333</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>334</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -3415,19 +3109,19 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>335</v>
+        <v>257</v>
       </c>
       <c r="E84" t="s"/>
       <c r="F84" t="s">
-        <v>336</v>
+        <v>258</v>
       </c>
       <c r="G84" t="s">
-        <v>337</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>338</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -3436,40 +3130,40 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>339</v>
+        <v>260</v>
       </c>
       <c r="E85" t="s"/>
       <c r="F85" t="s">
-        <v>340</v>
+        <v>261</v>
       </c>
       <c r="G85" t="s">
-        <v>341</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>342</v>
+        <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>343</v>
+        <v>263</v>
       </c>
       <c r="E86" t="s"/>
       <c r="F86" t="s">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="G86" t="s">
-        <v>345</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>346</v>
+        <v>56</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -3478,40 +3172,40 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>347</v>
+        <v>266</v>
       </c>
       <c r="E87" t="s"/>
       <c r="F87" t="s">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="G87" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>350</v>
+        <v>56</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>351</v>
+        <v>269</v>
       </c>
       <c r="E88" t="s"/>
       <c r="F88" t="s">
-        <v>352</v>
+        <v>270</v>
       </c>
       <c r="G88" t="s">
-        <v>353</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>354</v>
+        <v>56</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
@@ -3520,40 +3214,40 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>355</v>
+        <v>272</v>
       </c>
       <c r="E89" t="s"/>
       <c r="F89" t="s">
-        <v>356</v>
+        <v>273</v>
       </c>
       <c r="G89" t="s">
-        <v>357</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>358</v>
+        <v>56</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="E90" t="s"/>
       <c r="F90" t="s">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="G90" t="s">
-        <v>361</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>362</v>
+        <v>56</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -3562,19 +3256,19 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="E91" t="s"/>
       <c r="F91" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="G91" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>366</v>
+        <v>56</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -3583,19 +3277,19 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="E92" t="s"/>
       <c r="F92" t="s">
-        <v>368</v>
+        <v>282</v>
       </c>
       <c r="G92" t="s">
-        <v>369</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>370</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
@@ -3604,40 +3298,40 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="E93" t="s"/>
       <c r="F93" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="G93" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>374</v>
+        <v>56</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="E94" t="s"/>
       <c r="F94" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="G94" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>378</v>
+        <v>56</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -3646,19 +3340,19 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="E95" t="s"/>
       <c r="F95" t="s">
-        <v>380</v>
+        <v>291</v>
       </c>
       <c r="G95" t="s">
-        <v>381</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>382</v>
+        <v>56</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
@@ -3667,40 +3361,40 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="E96" t="s"/>
       <c r="F96" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="G96" t="s">
-        <v>385</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>386</v>
+        <v>56</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>387</v>
+        <v>296</v>
       </c>
       <c r="E97" t="s"/>
       <c r="F97" t="s">
-        <v>388</v>
+        <v>297</v>
       </c>
       <c r="G97" t="s">
-        <v>389</v>
+        <v>298</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>390</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -3709,40 +3403,40 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>391</v>
+        <v>299</v>
       </c>
       <c r="E98" t="s"/>
       <c r="F98" t="s">
-        <v>392</v>
+        <v>300</v>
       </c>
       <c r="G98" t="s">
-        <v>393</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>394</v>
+        <v>56</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="E99" t="s"/>
       <c r="F99" t="s">
-        <v>396</v>
+        <v>303</v>
       </c>
       <c r="G99" t="s">
-        <v>397</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>398</v>
+        <v>56</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -3751,19 +3445,19 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>399</v>
+        <v>305</v>
       </c>
       <c r="E100" t="s"/>
       <c r="F100" t="s">
-        <v>400</v>
+        <v>306</v>
       </c>
       <c r="G100" t="s">
-        <v>401</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>402</v>
+        <v>56</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
@@ -3772,19 +3466,19 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="E101" t="s"/>
       <c r="F101" t="s">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="G101" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>406</v>
+        <v>56</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -3793,19 +3487,19 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="E102" t="s"/>
       <c r="F102" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="G102" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>410</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -3814,82 +3508,82 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>411</v>
+        <v>314</v>
       </c>
       <c r="E103" t="s"/>
       <c r="F103" t="s">
-        <v>412</v>
+        <v>315</v>
       </c>
       <c r="G103" t="s">
-        <v>413</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>414</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C104" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D104" t="s">
-        <v>415</v>
+        <v>317</v>
       </c>
       <c r="E104" t="s"/>
       <c r="F104" t="s">
-        <v>416</v>
+        <v>318</v>
       </c>
       <c r="G104" t="s">
-        <v>417</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>418</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="E105" t="s"/>
       <c r="F105" t="s">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="G105" t="s">
-        <v>421</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>422</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>423</v>
+        <v>323</v>
       </c>
       <c r="E106" t="s"/>
       <c r="F106" t="s">
-        <v>424</v>
+        <v>324</v>
       </c>
       <c r="G106" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>426</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -3898,35 +3592,35 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>427</v>
+        <v>326</v>
       </c>
       <c r="E107" t="s"/>
       <c r="F107" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
       <c r="G107" t="s">
-        <v>429</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>430</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>431</v>
+        <v>329</v>
       </c>
       <c r="E108" t="s"/>
       <c r="F108" t="s">
-        <v>432</v>
+        <v>330</v>
       </c>
       <c r="G108" t="s">
-        <v>433</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
